--- a/Templates/development/4_template_development.xlsx
+++ b/Templates/development/4_template_development.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\doc\templates for data submission\development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\GitHub\ShareTrait\Templates\development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9600BB0C-3D72-4573-B506-B6625A45960A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59609C6B-693E-4174-B99F-815FF3EBA273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="167">
   <si>
     <t>Table_name</t>
   </si>
@@ -528,6 +528,9 @@
   <si>
     <t>Relevant notes about the timing of collection such as day, month, year, range of dates, etc</t>
   </si>
+  <si>
+    <t>date_of_collection_final</t>
+  </si>
 </sst>
 </file>
 
@@ -935,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB858EB-2AC9-4E6D-994B-94C2B190997A}">
   <dimension ref="A1:BO1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,7 +1075,7 @@
         <v>46</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="S1" s="11" t="s">
         <v>49</v>
@@ -1232,9 +1235,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z974"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B68"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1899,7 +1902,7 @@
         <v>43</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>48</v>

--- a/Templates/development/4_template_development.xlsx
+++ b/Templates/development/4_template_development.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\GitHub\ShareTrait\Templates\development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59609C6B-693E-4174-B99F-815FF3EBA273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38528213-DF0A-429D-B7D2-8E4197B07854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="168">
   <si>
     <t>Table_name</t>
   </si>
@@ -531,6 +531,9 @@
   <si>
     <t>date_of_collection_final</t>
   </si>
+  <si>
+    <t>life_stage_general_final</t>
+  </si>
 </sst>
 </file>
 
@@ -938,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB858EB-2AC9-4E6D-994B-94C2B190997A}">
   <dimension ref="A1:BO1"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1117,7 @@
         <v>79</v>
       </c>
       <c r="AE1" s="15" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AF1" s="15" t="s">
         <v>83</v>
@@ -1235,9 +1238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2370,7 +2373,7 @@
         <v>64</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>82</v>
